--- a/output_region_cycle2017_summary_Asia_and_the_Pacific.xlsx
+++ b/output_region_cycle2017_summary_Asia_and_the_Pacific.xlsx
@@ -463,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -510,10 +510,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -557,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
@@ -680,13 +680,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -836,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>41</v>
@@ -989,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>41</v>
